--- a/examples/01_add_book/newbook.xlsx
+++ b/examples/01_add_book/newbook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">isbn</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">full_price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_price</t>
   </si>
   <si>
     <t xml:space="preserve">adelphi</t>
@@ -194,22 +197,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:M2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:M2"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:N2" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N2"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="isbn"/>
     <tableColumn id="2" name="author"/>
     <tableColumn id="3" name="title"/>
     <tableColumn id="4" name="year"/>
     <tableColumn id="5" name="publisher"/>
     <tableColumn id="6" name="full_price"/>
-    <tableColumn id="7" name="adelphi"/>
-    <tableColumn id="8" name="buecher"/>
-    <tableColumn id="9" name="feltrinelli"/>
-    <tableColumn id="10" name="ibs"/>
-    <tableColumn id="11" name="libraccio"/>
-    <tableColumn id="12" name="mondadori"/>
-    <tableColumn id="13" name="osiander"/>
+    <tableColumn id="7" name="min_price"/>
+    <tableColumn id="8" name="adelphi"/>
+    <tableColumn id="9" name="buecher"/>
+    <tableColumn id="10" name="feltrinelli"/>
+    <tableColumn id="11" name="ibs"/>
+    <tableColumn id="12" name="libraccio"/>
+    <tableColumn id="13" name="mondadori"/>
+    <tableColumn id="14" name="osiander"/>
   </tableColumns>
 </table>
 </file>
@@ -219,13 +223,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -267,28 +271,31 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>9781857988826</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1999</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>16</v>
+      <c r="G2" s="0" t="n">
+        <v>13</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>17</v>
@@ -296,8 +303,11 @@
       <c r="J2" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>19</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
